--- a/Mini Project/C/profiling.xlsx
+++ b/Mini Project/C/profiling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Desktop\GitHub\EE580-Assignments\Mini Project\C\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ringl\Documents\git\EE580-Assignments\Mini Project\C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4261DB1-2C96-4950-B536-3DE1FB4902B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1069FF-9E61-4B9B-9CDF-E1577CF999F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F88C92FF-84DB-48B4-9434-9AFA54E1C919}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F88C92FF-84DB-48B4-9434-9AFA54E1C919}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -443,15 +443,15 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="F14" activeCellId="1" sqref="D9 F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -462,7 +462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -470,7 +470,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -484,7 +484,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -498,7 +498,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -512,7 +512,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -523,7 +523,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -534,7 +534,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -545,7 +545,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -553,7 +553,7 @@
         <v>1386</v>
       </c>
       <c r="D9">
-        <v>673</v>
+        <v>851</v>
       </c>
     </row>
   </sheetData>

--- a/Mini Project/C/profiling.xlsx
+++ b/Mini Project/C/profiling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ringl\Documents\git\EE580-Assignments\Mini Project\C\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Desktop\GitHub\EE580-Assignments\Mini Project\C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1069FF-9E61-4B9B-9CDF-E1577CF999F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4261DB1-2C96-4950-B536-3DE1FB4902B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F88C92FF-84DB-48B4-9434-9AFA54E1C919}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F88C92FF-84DB-48B4-9434-9AFA54E1C919}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -443,15 +443,15 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" activeCellId="1" sqref="D9 F14"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -462,7 +462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -470,7 +470,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -484,7 +484,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -498,7 +498,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -512,7 +512,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -523,7 +523,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -534,7 +534,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -545,7 +545,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -553,7 +553,7 @@
         <v>1386</v>
       </c>
       <c r="D9">
-        <v>851</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>

--- a/Mini Project/C/profiling.xlsx
+++ b/Mini Project/C/profiling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Desktop\GitHub\EE580-Assignments\Mini Project\C\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ringl\Documents\git\EE580-Assignments\Mini Project\C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4261DB1-2C96-4950-B536-3DE1FB4902B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D638B2B9-5135-4A1D-BC33-D2E26A6BB9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F88C92FF-84DB-48B4-9434-9AFA54E1C919}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F88C92FF-84DB-48B4-9434-9AFA54E1C919}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>No filter</t>
   </si>
@@ -65,10 +65,16 @@
     <t>original</t>
   </si>
   <si>
-    <t>pragma MUST_ITERATE</t>
-  </si>
-  <si>
     <t>Q14</t>
+  </si>
+  <si>
+    <t>PRAGMAs</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Memory</t>
   </si>
 </sst>
 </file>
@@ -440,18 +446,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1DCDDF-192E-4A5F-94BB-CE7331A5BC75}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -461,8 +467,11 @@
       <c r="D1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -470,7 +479,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -478,13 +487,13 @@
         <v>500</v>
       </c>
       <c r="C3">
+        <v>339</v>
+      </c>
+      <c r="D3">
         <v>486</v>
       </c>
-      <c r="D3">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -492,13 +501,13 @@
         <v>548</v>
       </c>
       <c r="C4">
+        <v>379</v>
+      </c>
+      <c r="D4">
         <v>538</v>
       </c>
-      <c r="D4">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -506,54 +515,59 @@
         <v>500</v>
       </c>
       <c r="C5">
+        <v>339</v>
+      </c>
+      <c r="D5">
         <v>486</v>
       </c>
-      <c r="D5">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>966</v>
       </c>
-      <c r="D6">
+      <c r="C6">
         <v>625</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>968</v>
       </c>
-      <c r="D7">
+      <c r="C7">
         <v>625</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8">
         <v>918</v>
       </c>
-      <c r="D8">
+      <c r="C8">
         <v>595</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <v>1386</v>
       </c>
-      <c r="D9">
+      <c r="C9">
         <v>673</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Mini Project/C/profiling.xlsx
+++ b/Mini Project/C/profiling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ringl\Documents\git\EE580-Assignments\Mini Project\C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D638B2B9-5135-4A1D-BC33-D2E26A6BB9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD2D938-4AD1-4E77-9805-A96E271FD8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F88C92FF-84DB-48B4-9434-9AFA54E1C919}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F88C92FF-84DB-48B4-9434-9AFA54E1C919}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>No filter</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Memory</t>
+  </si>
+  <si>
+    <t>NEW</t>
   </si>
 </sst>
 </file>
@@ -446,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1DCDDF-192E-4A5F-94BB-CE7331A5BC75}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,6 +573,137 @@
         <v>12</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>500</v>
+      </c>
+      <c r="C15">
+        <v>348</v>
+      </c>
+      <c r="D15">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>548</v>
+      </c>
+      <c r="C16">
+        <v>374</v>
+      </c>
+      <c r="D16">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>500</v>
+      </c>
+      <c r="C17">
+        <v>348</v>
+      </c>
+      <c r="D17">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>966</v>
+      </c>
+      <c r="C18">
+        <v>643</v>
+      </c>
+      <c r="D18">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>966</v>
+      </c>
+      <c r="C19">
+        <v>643</v>
+      </c>
+      <c r="D19">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>918</v>
+      </c>
+      <c r="C20">
+        <v>619</v>
+      </c>
+      <c r="D20">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>1386</v>
+      </c>
+      <c r="C21">
+        <v>911</v>
+      </c>
+      <c r="D21">
+        <v>807</v>
+      </c>
+      <c r="E21">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
